--- a/test/results/01.BasicCodonUsage/NS4A/NS4A.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS4A/NS4A.RSCU.xlsx
@@ -253,13 +253,13 @@
     <t>TAT</t>
   </si>
   <si>
-    <t>KU955594</t>
-  </si>
-  <si>
     <t>LC002520</t>
   </si>
   <si>
     <t>KF383118</t>
+  </si>
+  <si>
+    <t>KU955594</t>
   </si>
   <si>
     <t>KF383119</t>
@@ -268,10 +268,10 @@
     <t>KF383115</t>
   </si>
   <si>
-    <t>KF268949</t>
+    <t>KF268948</t>
   </si>
   <si>
-    <t>KF268948</t>
+    <t>KF268949</t>
   </si>
   <si>
     <t>KF268950</t>
@@ -283,22 +283,22 @@
     <t>KF383116</t>
   </si>
   <si>
+    <t>KU955595</t>
+  </si>
+  <si>
     <t>HQ234501</t>
   </si>
   <si>
-    <t>KU955595</t>
+    <t>KU955592</t>
   </si>
   <si>
     <t>KU955591</t>
   </si>
   <si>
-    <t>KU955592</t>
+    <t>KF383117</t>
   </si>
   <si>
     <t>KX601166</t>
-  </si>
-  <si>
-    <t>KF383117</t>
   </si>
   <si>
     <t>HQ234499</t>
@@ -316,25 +316,25 @@
     <t>KX694532</t>
   </si>
   <si>
-    <t>KU681081</t>
+    <t>KX813683</t>
   </si>
   <si>
-    <t>KX813683</t>
+    <t>KU681081</t>
   </si>
   <si>
     <t>KX447517</t>
   </si>
   <si>
+    <t>KU744693</t>
+  </si>
+  <si>
     <t>KX197192</t>
   </si>
   <si>
-    <t>KU744693</t>
+    <t>KU509998</t>
   </si>
   <si>
     <t>KU321639</t>
-  </si>
-  <si>
-    <t>KU509998</t>
   </si>
   <si>
     <t>KU527068</t>
@@ -343,10 +343,10 @@
     <t>KX051563</t>
   </si>
   <si>
-    <t>KX838906</t>
+    <t>KX673530</t>
   </si>
   <si>
-    <t>KX673530</t>
+    <t>KX838906</t>
   </si>
   <si>
     <t>KX838904</t>
@@ -355,10 +355,10 @@
     <t>KX832731</t>
   </si>
   <si>
-    <t>KX838905</t>
+    <t>KX842449</t>
   </si>
   <si>
-    <t>KX842449</t>
+    <t>KX838905</t>
   </si>
   <si>
     <t>KU853012</t>
@@ -367,10 +367,10 @@
     <t>KU853013</t>
   </si>
   <si>
-    <t>KU729217</t>
+    <t>KX280026</t>
   </si>
   <si>
-    <t>KX280026</t>
+    <t>KU729217</t>
   </si>
   <si>
     <t>KX056898</t>
@@ -415,10 +415,10 @@
     <t>KU365777</t>
   </si>
   <si>
-    <t>KU365780</t>
+    <t>KU870645</t>
   </si>
   <si>
-    <t>KU870645</t>
+    <t>KU365780</t>
   </si>
   <si>
     <t>KX694534</t>
@@ -433,22 +433,22 @@
     <t>KU501216</t>
   </si>
   <si>
+    <t>KX766029</t>
+  </si>
+  <si>
     <t>KX446950</t>
   </si>
   <si>
-    <t>KX766029</t>
+    <t>KX446951</t>
   </si>
   <si>
     <t>KX247632</t>
   </si>
   <si>
-    <t>KX446951</t>
+    <t>KX520666</t>
   </si>
   <si>
     <t>KU940228</t>
-  </si>
-  <si>
-    <t>KX520666</t>
   </si>
   <si>
     <t>KU729218</t>
@@ -469,10 +469,10 @@
     <t>KU647676</t>
   </si>
   <si>
-    <t>KU922923</t>
+    <t>KU922960</t>
   </si>
   <si>
-    <t>KU922960</t>
+    <t>KU922923</t>
   </si>
   <si>
     <t>KX198135</t>
@@ -484,10 +484,10 @@
     <t>KX247646</t>
   </si>
   <si>
-    <t>KU820897</t>
+    <t>KX087102</t>
   </si>
   <si>
-    <t>KX087102</t>
+    <t>KU820897</t>
   </si>
   <si>
     <t>KX156775</t>
@@ -496,10 +496,10 @@
     <t>KX156774</t>
   </si>
   <si>
-    <t>KX447510</t>
+    <t>KX156776</t>
   </si>
   <si>
-    <t>KX156776</t>
+    <t>KX447510</t>
   </si>
   <si>
     <t>KX447511</t>
@@ -517,10 +517,10 @@
     <t>KX117076</t>
   </si>
   <si>
-    <t>KU866423</t>
+    <t>KU955589</t>
   </si>
   <si>
-    <t>KU955589</t>
+    <t>KU866423</t>
   </si>
   <si>
     <t>KX266255</t>
@@ -544,10 +544,10 @@
     <t>KX447516</t>
   </si>
   <si>
-    <t>KX447509</t>
+    <t>KX447515</t>
   </si>
   <si>
-    <t>KX447515</t>
+    <t>KX447509</t>
   </si>
   <si>
     <t>KX447514</t>
@@ -2111,16 +2111,16 @@
         <v>84</v>
       </c>
       <c r="B9">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="C9">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="D9">
-        <v>0.57</v>
+        <v>0.31</v>
       </c>
       <c r="E9">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K9">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="L9">
         <v>0.8</v>
@@ -2150,13 +2150,13 @@
         <v>2.15</v>
       </c>
       <c r="O9">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="P9">
         <v>0.92</v>
       </c>
       <c r="Q9">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="R9">
         <v>2</v>
@@ -2180,22 +2180,22 @@
         <v>2</v>
       </c>
       <c r="Y9">
+        <v>0.29</v>
+      </c>
+      <c r="Z9">
+        <v>1.71</v>
+      </c>
+      <c r="AA9">
+        <v>0.86</v>
+      </c>
+      <c r="AB9">
         <v>0.57</v>
-      </c>
-      <c r="Z9">
-        <v>1.43</v>
-      </c>
-      <c r="AA9">
-        <v>1.14</v>
-      </c>
-      <c r="AB9">
-        <v>0.86</v>
       </c>
       <c r="AC9">
         <v>0.86</v>
       </c>
       <c r="AD9">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AE9">
         <v>1</v>
@@ -2240,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2270,16 +2270,16 @@
         <v>1.14</v>
       </c>
       <c r="BC9">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="BD9">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="BE9">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="BF9">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="BG9">
         <v>2</v>
@@ -2293,16 +2293,16 @@
         <v>85</v>
       </c>
       <c r="B10">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="C10">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="D10">
-        <v>0.31</v>
+        <v>0.57</v>
       </c>
       <c r="E10">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L10">
         <v>0.8</v>
@@ -2332,13 +2332,13 @@
         <v>2.15</v>
       </c>
       <c r="O10">
-        <v>0.62</v>
+        <v>0.31</v>
       </c>
       <c r="P10">
         <v>0.92</v>
       </c>
       <c r="Q10">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="R10">
         <v>2</v>
@@ -2362,22 +2362,22 @@
         <v>2</v>
       </c>
       <c r="Y10">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="Z10">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AA10">
+        <v>1.14</v>
+      </c>
+      <c r="AB10">
         <v>0.86</v>
-      </c>
-      <c r="AB10">
-        <v>0.57</v>
       </c>
       <c r="AC10">
         <v>0.86</v>
       </c>
       <c r="AD10">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AE10">
         <v>1</v>
@@ -2422,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2452,16 +2452,16 @@
         <v>1.14</v>
       </c>
       <c r="BC10">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="BD10">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="BE10">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="BF10">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="BG10">
         <v>2</v>
@@ -3818,13 +3818,13 @@
         <v>1.5</v>
       </c>
       <c r="Y18">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="Z18">
         <v>1.43</v>
       </c>
       <c r="AA18">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AB18">
         <v>0.86</v>
@@ -3899,13 +3899,13 @@
         <v>1.71</v>
       </c>
       <c r="AZ18">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="BA18">
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="BC18">
         <v>0.8</v>
@@ -4000,13 +4000,13 @@
         <v>1.5</v>
       </c>
       <c r="Y19">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="Z19">
         <v>1.43</v>
       </c>
       <c r="AA19">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AB19">
         <v>0.86</v>
@@ -4081,13 +4081,13 @@
         <v>1.71</v>
       </c>
       <c r="AZ19">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="BA19">
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="BC19">
         <v>0.8</v>
@@ -5035,10 +5035,10 @@
         <v>0.57</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -5116,13 +5116,13 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AH25">
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AJ25">
         <v>1.33</v>
@@ -5134,10 +5134,10 @@
         <v>0.67</v>
       </c>
       <c r="AM25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -5170,13 +5170,13 @@
         <v>0</v>
       </c>
       <c r="AY25">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AZ25">
         <v>1.14</v>
       </c>
       <c r="BA25">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="BB25">
         <v>1.14</v>
@@ -5217,10 +5217,10 @@
         <v>0.57</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -5298,13 +5298,13 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AH26">
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AJ26">
         <v>1.33</v>
@@ -5316,10 +5316,10 @@
         <v>0.67</v>
       </c>
       <c r="AM26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5352,13 +5352,13 @@
         <v>0</v>
       </c>
       <c r="AY26">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AZ26">
         <v>1.14</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="BB26">
         <v>1.14</v>
@@ -11158,10 +11158,10 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU58">
         <v>0</v>
@@ -11179,13 +11179,13 @@
         <v>1.71</v>
       </c>
       <c r="AZ58">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="BA58">
         <v>0</v>
       </c>
       <c r="BB58">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="BC58">
         <v>0</v>
@@ -11340,10 +11340,10 @@
         <v>0</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AT59">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AU59">
         <v>0</v>
@@ -11361,13 +11361,13 @@
         <v>1.71</v>
       </c>
       <c r="AZ59">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="BA59">
         <v>0</v>
       </c>
       <c r="BB59">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="BC59">
         <v>0</v>
@@ -12157,13 +12157,13 @@
         <v>1</v>
       </c>
       <c r="N64">
-        <v>2.46</v>
+        <v>2.15</v>
       </c>
       <c r="O64">
         <v>0.62</v>
       </c>
       <c r="P64">
-        <v>0.92</v>
+        <v>1.23</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -12339,13 +12339,13 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>2.46</v>
       </c>
       <c r="O65">
         <v>0.62</v>
       </c>
       <c r="P65">
-        <v>1.23</v>
+        <v>0.92</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -17220,13 +17220,13 @@
         <v>0.86</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="D92">
         <v>0.86</v>
       </c>
       <c r="E92">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -17241,10 +17241,10 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K92">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -17265,19 +17265,19 @@
         <v>0</v>
       </c>
       <c r="R92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T92">
         <v>0.75</v>
       </c>
       <c r="U92">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="V92">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="W92">
         <v>0.5</v>
@@ -17289,19 +17289,19 @@
         <v>0.6</v>
       </c>
       <c r="Z92">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AA92">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AB92">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AC92">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD92">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AE92">
         <v>2</v>
@@ -17313,13 +17313,13 @@
         <v>2</v>
       </c>
       <c r="AH92">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AI92">
         <v>0.67</v>
       </c>
       <c r="AJ92">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AK92">
         <v>1.33</v>
@@ -17331,7 +17331,7 @@
         <v>3</v>
       </c>
       <c r="AN92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO92">
         <v>0</v>
@@ -17340,7 +17340,7 @@
         <v>0</v>
       </c>
       <c r="AQ92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>0</v>
@@ -17367,13 +17367,13 @@
         <v>1.71</v>
       </c>
       <c r="AZ92">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="BA92">
         <v>0</v>
       </c>
       <c r="BB92">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="BC92">
         <v>0</v>
@@ -17402,13 +17402,13 @@
         <v>0.86</v>
       </c>
       <c r="C93">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="D93">
         <v>0.86</v>
       </c>
       <c r="E93">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -17423,10 +17423,10 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K93">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -17447,19 +17447,19 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>0.75</v>
       </c>
       <c r="U93">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="V93">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="W93">
         <v>0.5</v>
@@ -17471,19 +17471,19 @@
         <v>0.6</v>
       </c>
       <c r="Z93">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AA93">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AB93">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AC93">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD93">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AE93">
         <v>2</v>
@@ -17495,13 +17495,13 @@
         <v>2</v>
       </c>
       <c r="AH93">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AI93">
         <v>0.67</v>
       </c>
       <c r="AJ93">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AK93">
         <v>1.33</v>
@@ -17513,7 +17513,7 @@
         <v>3</v>
       </c>
       <c r="AN93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO93">
         <v>0</v>
@@ -17522,7 +17522,7 @@
         <v>0</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR93">
         <v>0</v>
@@ -17549,13 +17549,13 @@
         <v>1.71</v>
       </c>
       <c r="AZ93">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="BA93">
         <v>0</v>
       </c>
       <c r="BB93">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="BC93">
         <v>0</v>

--- a/test/results/01.BasicCodonUsage/NS4A/NS4A.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS4A/NS4A.RSCU.xlsx
@@ -253,16 +253,16 @@
     <t>TAT</t>
   </si>
   <si>
-    <t>LC002520</t>
+    <t>KU955594</t>
   </si>
   <si>
     <t>KF383118</t>
   </si>
   <si>
-    <t>KU955594</t>
+    <t>KF383119</t>
   </si>
   <si>
-    <t>KF383119</t>
+    <t>LC002520</t>
   </si>
   <si>
     <t>KF383115</t>
@@ -277,19 +277,22 @@
     <t>KF268950</t>
   </si>
   <si>
-    <t>HQ234500</t>
+    <t>KF383116</t>
   </si>
   <si>
-    <t>KF383116</t>
+    <t>HQ234501</t>
+  </si>
+  <si>
+    <t>HQ234500</t>
   </si>
   <si>
     <t>KU955595</t>
   </si>
   <si>
-    <t>HQ234501</t>
+    <t>KU955592</t>
   </si>
   <si>
-    <t>KU955592</t>
+    <t>KX601166</t>
   </si>
   <si>
     <t>KU955591</t>
@@ -298,34 +301,34 @@
     <t>KF383117</t>
   </si>
   <si>
-    <t>KX601166</t>
-  </si>
-  <si>
-    <t>HQ234499</t>
-  </si>
-  <si>
     <t>KU681082</t>
   </si>
   <si>
     <t>EU545988</t>
   </si>
   <si>
+    <t>HQ234499</t>
+  </si>
+  <si>
     <t>KU955593</t>
+  </si>
+  <si>
+    <t>KU681081</t>
   </si>
   <si>
     <t>KX694532</t>
   </si>
   <si>
+    <t>KX447517</t>
+  </si>
+  <si>
     <t>KX813683</t>
   </si>
   <si>
-    <t>KU681081</t>
+    <t>KU744693</t>
   </si>
   <si>
-    <t>KX447517</t>
-  </si>
-  <si>
-    <t>KU744693</t>
+    <t>KU321639</t>
   </si>
   <si>
     <t>KX197192</t>
@@ -334,19 +337,16 @@
     <t>KU509998</t>
   </si>
   <si>
-    <t>KU321639</t>
-  </si>
-  <si>
     <t>KU527068</t>
   </si>
   <si>
     <t>KX051563</t>
   </si>
   <si>
-    <t>KX673530</t>
+    <t>KX838906</t>
   </si>
   <si>
-    <t>KX838906</t>
+    <t>KX673530</t>
   </si>
   <si>
     <t>KX838904</t>
@@ -355,10 +355,10 @@
     <t>KX832731</t>
   </si>
   <si>
-    <t>KX842449</t>
+    <t>KX838905</t>
   </si>
   <si>
-    <t>KX838905</t>
+    <t>KX842449</t>
   </si>
   <si>
     <t>KU853012</t>
@@ -367,10 +367,10 @@
     <t>KU853013</t>
   </si>
   <si>
-    <t>KX280026</t>
+    <t>KU729217</t>
   </si>
   <si>
-    <t>KU729217</t>
+    <t>KX280026</t>
   </si>
   <si>
     <t>KX056898</t>
@@ -379,10 +379,10 @@
     <t>KU955590</t>
   </si>
   <si>
-    <t>KX766028</t>
+    <t>KU740184</t>
   </si>
   <si>
-    <t>KU740184</t>
+    <t>KX766028</t>
   </si>
   <si>
     <t>KU761564</t>
@@ -391,10 +391,10 @@
     <t>KU820898</t>
   </si>
   <si>
-    <t>KX087101</t>
+    <t>KU365778</t>
   </si>
   <si>
-    <t>KU365778</t>
+    <t>KX087101</t>
   </si>
   <si>
     <t>KU758877</t>
@@ -427,10 +427,10 @@
     <t>KX262887</t>
   </si>
   <si>
-    <t>KU501217</t>
+    <t>KU501216</t>
   </si>
   <si>
-    <t>KU501216</t>
+    <t>KU501217</t>
   </si>
   <si>
     <t>KX766029</t>
@@ -445,10 +445,10 @@
     <t>KX247632</t>
   </si>
   <si>
-    <t>KX520666</t>
+    <t>KU940228</t>
   </si>
   <si>
-    <t>KU940228</t>
+    <t>KX520666</t>
   </si>
   <si>
     <t>KU729218</t>
@@ -469,10 +469,10 @@
     <t>KU647676</t>
   </si>
   <si>
-    <t>KU922960</t>
+    <t>KU922923</t>
   </si>
   <si>
-    <t>KU922923</t>
+    <t>KU922960</t>
   </si>
   <si>
     <t>KX198135</t>
@@ -487,10 +487,10 @@
     <t>KX087102</t>
   </si>
   <si>
-    <t>KU820897</t>
+    <t>KX156775</t>
   </si>
   <si>
-    <t>KX156775</t>
+    <t>KU820897</t>
   </si>
   <si>
     <t>KX156774</t>
@@ -517,10 +517,10 @@
     <t>KX117076</t>
   </si>
   <si>
-    <t>KU955589</t>
+    <t>KU866423</t>
   </si>
   <si>
-    <t>KU866423</t>
+    <t>KU955589</t>
   </si>
   <si>
     <t>KX266255</t>
@@ -547,10 +547,10 @@
     <t>KX447515</t>
   </si>
   <si>
-    <t>KX447509</t>
+    <t>KX447514</t>
   </si>
   <si>
-    <t>KX447514</t>
+    <t>KX447509</t>
   </si>
 </sst>
 </file>
@@ -1595,10 +1595,10 @@
         <v>1.4</v>
       </c>
       <c r="L6">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="M6">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="N6">
         <v>2.15</v>
@@ -1777,10 +1777,10 @@
         <v>1.4</v>
       </c>
       <c r="L7">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M7">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="N7">
         <v>2.15</v>
@@ -2693,16 +2693,16 @@
         <v>1.2</v>
       </c>
       <c r="N12">
-        <v>2.15</v>
+        <v>2.46</v>
       </c>
       <c r="O12">
+        <v>0.92</v>
+      </c>
+      <c r="P12">
         <v>0.62</v>
       </c>
-      <c r="P12">
-        <v>0.92</v>
-      </c>
       <c r="Q12">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>2</v>
@@ -2714,10 +2714,10 @@
         <v>0.38</v>
       </c>
       <c r="U12">
+        <v>1.5</v>
+      </c>
+      <c r="V12">
         <v>1.12</v>
-      </c>
-      <c r="V12">
-        <v>1.5</v>
       </c>
       <c r="W12">
         <v>0.5</v>
@@ -2726,22 +2726,22 @@
         <v>1.5</v>
       </c>
       <c r="Y12">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="Z12">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AA12">
         <v>0.86</v>
       </c>
       <c r="AB12">
-        <v>0.57</v>
+        <v>0.86</v>
       </c>
       <c r="AC12">
         <v>0.57</v>
       </c>
       <c r="AD12">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -2753,13 +2753,13 @@
         <v>2</v>
       </c>
       <c r="AH12">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AI12">
         <v>0.67</v>
       </c>
       <c r="AJ12">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AK12">
         <v>1.33</v>
@@ -2816,13 +2816,13 @@
         <v>0.57</v>
       </c>
       <c r="BC12">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="BD12">
         <v>1.2</v>
       </c>
       <c r="BE12">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BF12">
         <v>0.4</v>
@@ -2908,13 +2908,13 @@
         <v>1.5</v>
       </c>
       <c r="Y13">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="Z13">
         <v>1.43</v>
       </c>
       <c r="AA13">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AB13">
         <v>0.86</v>
@@ -2989,22 +2989,22 @@
         <v>1.71</v>
       </c>
       <c r="AZ13">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="BA13">
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="BC13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="BD13">
         <v>1.2</v>
       </c>
       <c r="BE13">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="BF13">
         <v>0.4</v>
@@ -3057,16 +3057,16 @@
         <v>1.2</v>
       </c>
       <c r="N14">
-        <v>2.46</v>
+        <v>2.15</v>
       </c>
       <c r="O14">
+        <v>0.62</v>
+      </c>
+      <c r="P14">
         <v>0.92</v>
       </c>
-      <c r="P14">
-        <v>0.62</v>
-      </c>
       <c r="Q14">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="R14">
         <v>2</v>
@@ -3078,10 +3078,10 @@
         <v>0.38</v>
       </c>
       <c r="U14">
-        <v>1.5</v>
+        <v>1.12</v>
       </c>
       <c r="V14">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="W14">
         <v>0.5</v>
@@ -3090,22 +3090,22 @@
         <v>1.5</v>
       </c>
       <c r="Y14">
-        <v>0.29</v>
+        <v>0.86</v>
       </c>
       <c r="Z14">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AA14">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AB14">
-        <v>0.86</v>
+        <v>0.57</v>
       </c>
       <c r="AC14">
         <v>0.57</v>
       </c>
       <c r="AD14">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AE14">
         <v>1</v>
@@ -3117,13 +3117,13 @@
         <v>2</v>
       </c>
       <c r="AH14">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AI14">
         <v>0.67</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AK14">
         <v>1.33</v>
@@ -3171,13 +3171,13 @@
         <v>1.71</v>
       </c>
       <c r="AZ14">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="BA14">
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="BC14">
         <v>0.8</v>
@@ -3818,13 +3818,13 @@
         <v>1.5</v>
       </c>
       <c r="Y18">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="Z18">
         <v>1.43</v>
       </c>
       <c r="AA18">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AB18">
         <v>0.86</v>
@@ -3899,13 +3899,13 @@
         <v>1.71</v>
       </c>
       <c r="AZ18">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="BA18">
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="BC18">
         <v>0.8</v>
@@ -4000,13 +4000,13 @@
         <v>1.5</v>
       </c>
       <c r="Y19">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="Z19">
         <v>1.43</v>
       </c>
       <c r="AA19">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AB19">
         <v>0.86</v>
@@ -4081,13 +4081,13 @@
         <v>1.71</v>
       </c>
       <c r="AZ19">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="BA19">
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="BC19">
         <v>0.8</v>
@@ -4143,10 +4143,10 @@
         <v>1.2</v>
       </c>
       <c r="L20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>2.46</v>
@@ -4155,10 +4155,10 @@
         <v>0.62</v>
       </c>
       <c r="P20">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
       <c r="Q20">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>2</v>
@@ -4170,10 +4170,10 @@
         <v>0.75</v>
       </c>
       <c r="U20">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="V20">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="W20">
         <v>0.5</v>
@@ -4182,7 +4182,7 @@
         <v>1.5</v>
       </c>
       <c r="Y20">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Z20">
         <v>1.5</v>
@@ -4194,10 +4194,10 @@
         <v>0.9</v>
       </c>
       <c r="AC20">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AE20">
         <v>2</v>
@@ -4209,25 +4209,25 @@
         <v>2</v>
       </c>
       <c r="AH20">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AI20">
         <v>0.67</v>
       </c>
       <c r="AJ20">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AK20">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AL20">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AM20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO20">
         <v>0</v>
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AT20">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -4263,13 +4263,13 @@
         <v>1.71</v>
       </c>
       <c r="AZ20">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="BA20">
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="BC20">
         <v>0</v>
@@ -4295,16 +4295,16 @@
         <v>96</v>
       </c>
       <c r="B21">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="D21">
-        <v>0.86</v>
+        <v>0.62</v>
       </c>
       <c r="E21">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -4319,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="K21">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4349,52 +4349,52 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="U21">
-        <v>0.38</v>
+        <v>1.12</v>
       </c>
       <c r="V21">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="W21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y21">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="Z21">
         <v>1.5</v>
       </c>
       <c r="AA21">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AB21">
         <v>0.9</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD21">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AE21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AH21">
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AJ21">
         <v>1.33</v>
@@ -4457,13 +4457,13 @@
         <v>0</v>
       </c>
       <c r="BD21">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="BE21">
         <v>2.4</v>
       </c>
       <c r="BF21">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BG21">
         <v>2</v>
@@ -4477,16 +4477,16 @@
         <v>97</v>
       </c>
       <c r="B22">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="C22">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="E22">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -4501,16 +4501,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="K22">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="N22">
         <v>2.46</v>
@@ -4519,10 +4519,10 @@
         <v>0.62</v>
       </c>
       <c r="P22">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="R22">
         <v>2</v>
@@ -4531,19 +4531,19 @@
         <v>0</v>
       </c>
       <c r="T22">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="U22">
-        <v>1.12</v>
+        <v>0.75</v>
       </c>
       <c r="V22">
         <v>1.5</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Y22">
         <v>0.3</v>
@@ -4552,46 +4552,46 @@
         <v>1.5</v>
       </c>
       <c r="AA22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AB22">
         <v>0.9</v>
       </c>
       <c r="AC22">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="AD22">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AI22">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AJ22">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AK22">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AL22">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AM22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22">
         <v>0</v>
@@ -4606,10 +4606,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -4627,25 +4627,25 @@
         <v>1.71</v>
       </c>
       <c r="AZ22">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="BA22">
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="BC22">
         <v>0</v>
       </c>
       <c r="BD22">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="BE22">
         <v>2.4</v>
       </c>
       <c r="BF22">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BG22">
         <v>2</v>
@@ -4841,7 +4841,7 @@
         <v>99</v>
       </c>
       <c r="B24">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="C24">
         <v>1.71</v>
@@ -4850,13 +4850,13 @@
         <v>0.86</v>
       </c>
       <c r="E24">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -4865,10 +4865,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K24">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4916,7 +4916,7 @@
         <v>1.8</v>
       </c>
       <c r="AA24">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AB24">
         <v>0.6</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AE24">
         <v>2</v>
@@ -4988,13 +4988,13 @@
         <v>0</v>
       </c>
       <c r="AY24">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AZ24">
         <v>1.14</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="BB24">
         <v>1.14</v>
@@ -5023,7 +5023,7 @@
         <v>100</v>
       </c>
       <c r="B25">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="C25">
         <v>1.71</v>
@@ -5032,7 +5032,7 @@
         <v>0.86</v>
       </c>
       <c r="E25">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -5047,10 +5047,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K25">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5098,7 +5098,7 @@
         <v>1.8</v>
       </c>
       <c r="AA25">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AB25">
         <v>0.6</v>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AE25">
         <v>2</v>
@@ -5116,13 +5116,13 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AH25">
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AJ25">
         <v>1.33</v>
@@ -5134,10 +5134,10 @@
         <v>0.67</v>
       </c>
       <c r="AM25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO25">
         <v>0</v>
@@ -5217,10 +5217,10 @@
         <v>0.57</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -5319,7 +5319,7 @@
         <v>3</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -5352,13 +5352,13 @@
         <v>0</v>
       </c>
       <c r="AY26">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AZ26">
         <v>1.14</v>
       </c>
       <c r="BA26">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="BB26">
         <v>1.14</v>
@@ -5480,13 +5480,13 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AH27">
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AJ27">
         <v>1.33</v>
@@ -5498,10 +5498,10 @@
         <v>0.67</v>
       </c>
       <c r="AM27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -15472,7 +15472,7 @@
         <v>1.8</v>
       </c>
       <c r="AA82">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AB82">
         <v>0.6</v>
@@ -15481,7 +15481,7 @@
         <v>0</v>
       </c>
       <c r="AD82">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AE82">
         <v>2</v>
@@ -15654,7 +15654,7 @@
         <v>1.8</v>
       </c>
       <c r="AA83">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AB83">
         <v>0.6</v>
@@ -15663,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="AD83">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AE83">
         <v>2</v>
@@ -17220,13 +17220,13 @@
         <v>0.86</v>
       </c>
       <c r="C92">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="D92">
         <v>0.86</v>
       </c>
       <c r="E92">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -17241,10 +17241,10 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K92">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L92">
         <v>1</v>
@@ -17265,19 +17265,19 @@
         <v>0</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T92">
         <v>0.75</v>
       </c>
       <c r="U92">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="V92">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="W92">
         <v>0.5</v>
@@ -17289,19 +17289,19 @@
         <v>0.6</v>
       </c>
       <c r="Z92">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AA92">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AB92">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AC92">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD92">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AE92">
         <v>2</v>
@@ -17313,13 +17313,13 @@
         <v>2</v>
       </c>
       <c r="AH92">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AI92">
         <v>0.67</v>
       </c>
       <c r="AJ92">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AK92">
         <v>1.33</v>
@@ -17331,7 +17331,7 @@
         <v>3</v>
       </c>
       <c r="AN92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO92">
         <v>0</v>
@@ -17340,7 +17340,7 @@
         <v>0</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR92">
         <v>0</v>
@@ -17367,13 +17367,13 @@
         <v>1.71</v>
       </c>
       <c r="AZ92">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="BA92">
         <v>0</v>
       </c>
       <c r="BB92">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="BC92">
         <v>0</v>
@@ -17402,13 +17402,13 @@
         <v>0.86</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="D93">
         <v>0.86</v>
       </c>
       <c r="E93">
-        <v>0.29</v>
+        <v>0.57</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -17423,10 +17423,10 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="K93">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -17447,19 +17447,19 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T93">
         <v>0.75</v>
       </c>
       <c r="U93">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="V93">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="W93">
         <v>0.5</v>
@@ -17471,19 +17471,19 @@
         <v>0.6</v>
       </c>
       <c r="Z93">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AA93">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AB93">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AC93">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD93">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AE93">
         <v>2</v>
@@ -17495,13 +17495,13 @@
         <v>2</v>
       </c>
       <c r="AH93">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AI93">
         <v>0.67</v>
       </c>
       <c r="AJ93">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AK93">
         <v>1.33</v>
@@ -17513,7 +17513,7 @@
         <v>3</v>
       </c>
       <c r="AN93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO93">
         <v>0</v>
@@ -17522,7 +17522,7 @@
         <v>0</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>0</v>
@@ -17549,13 +17549,13 @@
         <v>1.71</v>
       </c>
       <c r="AZ93">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="BA93">
         <v>0</v>
       </c>
       <c r="BB93">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="BC93">
         <v>0</v>
